--- a/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление без сохранения 1-я ночная смена.xlsx
+++ b/Участок ремонта форм/Документация/ЗАЯВЛЕНИЯ/Заявление без сохранения 1-я ночная смена.xlsx
@@ -66,9 +66,6 @@
     <t>Согласовано:</t>
   </si>
   <si>
-    <t xml:space="preserve">     Прошу предоставить мне  социальный отпуск __________ 2019 без сохранения заработной платы и свободное от работы время без сохранения заработной платы в связи со сложившимися семейными обстоятельствами __________ 2019 с _____ ч. по _____ ч., установив __________ 2019 рабочее время с _____ ч. по _____ ч.</t>
-  </si>
-  <si>
     <t>Заместитель директора</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Начальник производства</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Прошу предоставить мне  социальный отпуск __________  без сохранения заработной платы и свободное от работы время без сохранения заработной платы в связи со сложившимися семейными обстоятельствами __________  с _____ ч. по _____ ч., установив __________  рабочее время с _____ ч. по _____ ч.</t>
   </si>
 </sst>
 </file>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:D31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +730,7 @@
     </row>
     <row r="13" spans="1:13" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -781,7 +781,7 @@
     </row>
     <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -792,12 +792,12 @@
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
@@ -808,7 +808,7 @@
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -826,7 +826,7 @@
       <c r="D33" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8XaKZ30bEjgHvuSKHkSYT961Fm34+Qq9i6SSOE1Z+wRo2q14ri9wNqtJI/Uf+cSF77x3Aj0wpHATZQQwYSTiUg==" saltValue="tXPglppigN0vqzWc+Wv6Vw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="12">
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A3:B3"/>
